--- a/MagicBricks(Rent).xlsx
+++ b/MagicBricks(Rent).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/venkatampalli-sai-naga-charitha_c_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="853" documentId="8_{600C4F62-E7B5-41E2-8BAE-AF3C8E1EC245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A07541E-A2F0-4C63-9C14-FB7CE146E311}"/>
+  <xr:revisionPtr revIDLastSave="1191" documentId="8_{600C4F62-E7B5-41E2-8BAE-AF3C8E1EC245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF26793F-DBA5-43BD-A455-C9981569045B}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="4130" windowWidth="14400" windowHeight="8170" activeTab="2" xr2:uid="{CA317817-FCA0-4395-B0AA-2A6A29AB8EDF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="5" xr2:uid="{CA317817-FCA0-4395-B0AA-2A6A29AB8EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="237">
   <si>
     <t>Issue Type</t>
   </si>
@@ -139,24 +139,12 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>TS_MagicBricks_Buy_02</t>
-  </si>
-  <si>
     <t>To verify PG listing filters</t>
   </si>
   <si>
-    <t>TS_MagicBricks_Buy_03</t>
-  </si>
-  <si>
-    <t>TS_MagicBricks_Buy_04</t>
-  </si>
-  <si>
     <t>To verify PG details page</t>
   </si>
   <si>
-    <t>TS_MagicBricks_Buy_05</t>
-  </si>
-  <si>
     <t>To verify review functionality</t>
   </si>
   <si>
@@ -191,6 +179,487 @@
   </si>
   <si>
     <t>REQ_Rent_PG In Banglore_03</t>
+  </si>
+  <si>
+    <t>REQ_Rent_PG In Banglore_04</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Test Condition</t>
+  </si>
+  <si>
+    <t>Test Case Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result Iteration</t>
+  </si>
+  <si>
+    <t>Status Iteration 1</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_01</t>
+  </si>
+  <si>
+    <t>Rent dropdown options should appear</t>
+  </si>
+  <si>
+    <t>Rent dropdown options appeared</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1.https://www.magicbricks.com/property-for-sale-rent-in-Bangalore/residential-real-estate-Bangalore</t>
+  </si>
+  <si>
+    <t>To verify Magic Bricks homepage launch successfully</t>
+  </si>
+  <si>
+    <t>1.To validate that when website url is entered in
+ the browser it opens the website.</t>
+  </si>
+  <si>
+    <t>1.To validate Dropdown visibility when hovered on Rent Dropdown
+2.To validate that Pg in Banglore displays on Rent Dropdown
+3.To validate Pg in Banglore navigates to Pg list on clicking it</t>
+  </si>
+  <si>
+    <t>REQ_Rent_PG In Banglore_05</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_02</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent_02</t>
+  </si>
+  <si>
+    <t>User is  on Magic Bricks  Home Page and hovered on Rent Dropdown</t>
+  </si>
+  <si>
+    <t>User is able to open browser and able to enter the website url</t>
+  </si>
+  <si>
+    <t>To Validate that when url is entered the relevant website should get launched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the browser
+2.Enter the url to open the website
+</t>
+  </si>
+  <si>
+    <t>Magic Bricks website should launch succesfully</t>
+  </si>
+  <si>
+    <t>Magic Bricks website is launched successfully</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_03</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_04</t>
+  </si>
+  <si>
+    <t>TS_Magic_Bricks_Rent_02</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1.User is on the Home Page of Magic Bricks
+2.User hovers on Rent Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is on Home Page </t>
+  </si>
+  <si>
+    <t>To Validate PG Rent dropdown visible functionality</t>
+  </si>
+  <si>
+    <t>To Validate that PG in Bangalore is displayed on Rent Dropdown</t>
+  </si>
+  <si>
+    <t>1.User is on the HomePage
+2.User hovers on Rent Dropdown</t>
+  </si>
+  <si>
+    <t>PG in Banglore is visible on Rent Dropdown</t>
+  </si>
+  <si>
+    <t>PG in Bangalore should be visible in Rent Dropdown</t>
+  </si>
+  <si>
+    <t>To validate PG in Bangalore Option navigates to PG list Page</t>
+  </si>
+  <si>
+    <t>1.Click on PG in Bangalore option</t>
+  </si>
+  <si>
+    <t>Page should navigate to PG list page when clicked on that option</t>
+  </si>
+  <si>
+    <t>Page is navigated to PG list Page when clicked on that option</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_05</t>
+  </si>
+  <si>
+    <t>TS_Magic_Bricks_Rent_03</t>
+  </si>
+  <si>
+    <t>User is on PG Listing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to  location search bar
+2.Enter the required location
+</t>
+  </si>
+  <si>
+    <t>PG list should get updated with PG's in Whitefield</t>
+  </si>
+  <si>
+    <t>PG list is updated with PG's in Whitefield</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_06</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_07</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_08</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_09</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_10</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_11</t>
+  </si>
+  <si>
+    <t>To validate Gender Filter</t>
+  </si>
+  <si>
+    <t>To validate Location Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to Gender Drop down
+2.select the Gender
+</t>
+  </si>
+  <si>
+    <t>PG Llist is updtaed with PG's for Girls</t>
+  </si>
+  <si>
+    <t>To Validate Occupancy Filter</t>
+  </si>
+  <si>
+    <t>1.Go to Occupancy drop down
+2.select the occupancy</t>
+  </si>
+  <si>
+    <t>PG list should get updated with PG's for girls</t>
+  </si>
+  <si>
+    <t>PG list  should get updated with PG's for double sharing</t>
+  </si>
+  <si>
+    <t>PG list is updated with PG's for double sharing</t>
+  </si>
+  <si>
+    <t>To Validate Brand Filter</t>
+  </si>
+  <si>
+    <t>1.Go to Brand drop down
+2.select the Brand required</t>
+  </si>
+  <si>
+    <t>PG list should get updated with Bluebells Brand PG's</t>
+  </si>
+  <si>
+    <t>PG list is updated with Bluebells brand PG's</t>
+  </si>
+  <si>
+    <t>To Validate  Budget Filter</t>
+  </si>
+  <si>
+    <t>1.Go to Budget drop down
+2.select the budget required</t>
+  </si>
+  <si>
+    <t>2.Min-7000
+Max-11000</t>
+  </si>
+  <si>
+    <t>2.WhiteField</t>
+  </si>
+  <si>
+    <t>2.Girls</t>
+  </si>
+  <si>
+    <t>2.Double</t>
+  </si>
+  <si>
+    <t>2.Bluebells</t>
+  </si>
+  <si>
+    <t>PG list should get updated based on Min and Max Budget</t>
+  </si>
+  <si>
+    <t>To Validate Amenities Filter</t>
+  </si>
+  <si>
+    <t>1.click on Ac
+2.click on Attached Washroom</t>
+  </si>
+  <si>
+    <t>1.AC
+2.Attached Washroom</t>
+  </si>
+  <si>
+    <t>PG list should get updated based clicked amenities</t>
+  </si>
+  <si>
+    <t>PG list is updated based on clicked amenities</t>
+  </si>
+  <si>
+    <t>Pg list is not updated with Min and Max Budget</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>User is on PG details Page</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_12</t>
+  </si>
+  <si>
+    <t>TS_Magic_Bricks_Rent_04</t>
+  </si>
+  <si>
+    <t>User is on PG Details Page</t>
+  </si>
+  <si>
+    <t>To Validate PG details page displays correct info</t>
+  </si>
+  <si>
+    <t>1.Click on a specific PG</t>
+  </si>
+  <si>
+    <t>PG should display its correct info</t>
+  </si>
+  <si>
+    <t>Correct info is displayed for PG</t>
+  </si>
+  <si>
+    <t>To Validate photos are displayed and zoom works</t>
+  </si>
+  <si>
+    <t>1.Click on Photo of PG
+2.Check whether the picture Zooms</t>
+  </si>
+  <si>
+    <t>The Picture of PG should get zoomed</t>
+  </si>
+  <si>
+    <t>Picture of PG is Zoomed</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_13</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_14</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_15</t>
+  </si>
+  <si>
+    <t>TC_Magic_Bricks_16</t>
+  </si>
+  <si>
+    <t>To Validate Contact Owner button opens form when clicked</t>
+  </si>
+  <si>
+    <t>1.Click on Contact Owner button</t>
+  </si>
+  <si>
+    <t>To Validate View Phone Number button</t>
+  </si>
+  <si>
+    <t>It should display a pop up having owners details.</t>
+  </si>
+  <si>
+    <t>It should display a pop up having Phone number details</t>
+  </si>
+  <si>
+    <t>A pop up having owner details is not disaplyed</t>
+  </si>
+  <si>
+    <t>A pop up having phone number details is displayed</t>
+  </si>
+  <si>
+    <t>TS_Magic_Bricks_Rent_05</t>
+  </si>
+  <si>
+    <t>User is on PG  details Page</t>
+  </si>
+  <si>
+    <t>To Validate  Review Functionality</t>
+  </si>
+  <si>
+    <t>It should a form to give review upon clicking write a review</t>
+  </si>
+  <si>
+    <t>A form is displayed to review  upon clicking writing a review</t>
+  </si>
+  <si>
+    <t>To validate star rating</t>
+  </si>
+  <si>
+    <t>1.select a star rating</t>
+  </si>
+  <si>
+    <t>Review should be saved with selected rating</t>
+  </si>
+  <si>
+    <t>Review is saved with selected rating</t>
+  </si>
+  <si>
+    <t>1.Scroll down until you see Write a review
+2.Click on Write a Review</t>
+  </si>
+  <si>
+    <t>Defect Id.</t>
+  </si>
+  <si>
+    <t>Module name</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>BR_ID</t>
+  </si>
+  <si>
+    <t>TR_ID</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail percentage</t>
+  </si>
+  <si>
+    <t>Compilation Percentage</t>
+  </si>
+  <si>
+    <t>PG-Listing Page Functionality</t>
+  </si>
+  <si>
+    <t>PG List is not updated with Min and Max budgets</t>
+  </si>
+  <si>
+    <t>tester1@Magicbricks.com</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>PG-Details Page Functionality</t>
+  </si>
+  <si>
+    <t>tester2@MagicBricks.com</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent_03</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent_04</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent_05</t>
+  </si>
+  <si>
+    <t>BR_MagicBricks_Rent_01</t>
+  </si>
+  <si>
+    <t>REQ_MagicBricks_Rent_01</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_01</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>BR_MagicBricks_Rent_02</t>
+  </si>
+  <si>
+    <t>REQ_MagicBricks_Rent_02</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent-01</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent-02</t>
   </si>
   <si>
     <t xml:space="preserve">1.To Validate Location Filter(Diff Places in bangalore)
@@ -199,417 +668,128 @@
 4.To Validate Brand filter works (e.g., Zolo, Nestaway)
 5.To Validate Budget filter works(based on budget)
 6.To Validate Amenities filter works(Ac,power BackUp etc)
-7.To Validate More Filers are applied
-8.To Validate Sort by Relevance
-9.To Validate amenities filter supports multiple selections
 </t>
   </si>
   <si>
     <t xml:space="preserve">1.To Validate PG details page displays correct info (rent, location, amenities)
-2.To Validate PG name and brand are visible
-3.To Validate photos are displayed and zoom works
-4.To Validate Contact Owner button opens form when clicked
-5.To Validate View Phone Number button opens form when clicked
+2.To Validate photos are displayed and zoom works
+3.To Validate Contact Owner button opens form when clicked
+4.To Validate View Phone Number button opens form when clicked
 </t>
   </si>
   <si>
-    <t>REQ_Rent_PG In Banglore_04</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Precondition</t>
-  </si>
-  <si>
-    <t>Test Condition</t>
-  </si>
-  <si>
-    <t>Test Case Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result Iteration</t>
-  </si>
-  <si>
-    <t>Status Iteration 1</t>
-  </si>
-  <si>
-    <t>1.To Validate review  form  is visible when clicked on the  write a review
+    <t>BR_MagicBricks_Rent_03</t>
+  </si>
+  <si>
+    <t>REQ_MagicBricks_Rent_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.To Validate review  form  is visible when clicked on the  write a review
 2.To Validate star rating selection works
-3.To Validate Submit is disabled until we give star rating
-4.To Validate error msg showing up when we do not enter minimum required characters in wriiten review
-5.To Validate review submission shows Confirmation after submitting</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_01</t>
-  </si>
-  <si>
-    <t>Rent dropdown options should appear</t>
-  </si>
-  <si>
-    <t>Rent dropdown options appeared</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>1.https://www.magicbricks.com/property-for-sale-rent-in-Bangalore/residential-real-estate-Bangalore</t>
-  </si>
-  <si>
-    <t>To verify Magic Bricks homepage launch successfully</t>
-  </si>
-  <si>
-    <t>1.To validate that when website url is entered in
- the browser it opens the website.</t>
-  </si>
-  <si>
-    <t>1.To validate Dropdown visibility when hovered on Rent Dropdown
-2.To validate that Pg in Banglore displays on Rent Dropdown
-3.To validate Pg in Banglore navigates to Pg list on clicking it</t>
-  </si>
-  <si>
-    <t>REQ_Rent_PG In Banglore_05</t>
-  </si>
-  <si>
-    <t>Functionality Testing</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_02</t>
-  </si>
-  <si>
-    <t>TS_MagicBricks_Rent_02</t>
-  </si>
-  <si>
-    <t>User is  on Magic Bricks  Home Page and hovered on Rent Dropdown</t>
-  </si>
-  <si>
-    <t>User is able to open browser and able to enter the website url</t>
-  </si>
-  <si>
-    <t>To Validate that when url is entered the relevant website should get launched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.open the browser
-2.Enter the url to open the website
 </t>
   </si>
   <si>
-    <t>Magic Bricks website should launch succesfully</t>
-  </si>
-  <si>
-    <t>Magic Bricks website is launched successfully</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_03</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_04</t>
-  </si>
-  <si>
-    <t>TS_Magic_Bricks_Rent_02</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>1.User is on the Home Page of Magic Bricks
-2.User hovers on Rent Dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is on Home Page </t>
-  </si>
-  <si>
-    <t>To Validate PG Rent dropdown visible functionality</t>
-  </si>
-  <si>
-    <t>To Validate that PG in Bangalore is displayed on Rent Dropdown</t>
-  </si>
-  <si>
-    <t>1.User is on the HomePage
-2.User hovers on Rent Dropdown</t>
-  </si>
-  <si>
-    <t>PG in Banglore is visible on Rent Dropdown</t>
-  </si>
-  <si>
-    <t>PG in Bangalore should be visible in Rent Dropdown</t>
-  </si>
-  <si>
-    <t>To validate PG in Bangalore Option navigates to PG list Page</t>
-  </si>
-  <si>
-    <t>1.Click on PG in Bangalore option</t>
-  </si>
-  <si>
-    <t>Page should navigate to PG list page when clicked on that option</t>
-  </si>
-  <si>
-    <t>Page is navigated to PG list Page when clicked on that option</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_05</t>
-  </si>
-  <si>
-    <t>TS_Magic_Bricks_Rent_03</t>
-  </si>
-  <si>
-    <t>User is on PG Listing Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to  location search bar
-2.Enter the required location
-</t>
-  </si>
-  <si>
-    <t>PG list should get updated with PG's in Whitefield</t>
-  </si>
-  <si>
-    <t>PG list is updated with PG's in Whitefield</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_06</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_07</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_08</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_09</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_10</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_11</t>
-  </si>
-  <si>
-    <t>To validate Gender Filter</t>
-  </si>
-  <si>
-    <t>To validate Location Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to Gender Drop down
-2.select the Gender
-</t>
-  </si>
-  <si>
-    <t>PG Llist is updtaed with PG's for Girls</t>
-  </si>
-  <si>
-    <t>To Validate Occupancy Filter</t>
-  </si>
-  <si>
-    <t>1.Go to Occupancy drop down
-2.select the occupancy</t>
-  </si>
-  <si>
-    <t>PG list should get updated with PG's for girls</t>
-  </si>
-  <si>
-    <t>PG list  should get updated with PG's for double sharing</t>
-  </si>
-  <si>
-    <t>PG list is updated with PG's for double sharing</t>
-  </si>
-  <si>
-    <t>To Validate Brand Filter</t>
-  </si>
-  <si>
-    <t>1.Go to Brand drop down
-2.select the Brand required</t>
-  </si>
-  <si>
-    <t>PG list should get updated with Bluebells Brand PG's</t>
-  </si>
-  <si>
-    <t>PG list is updated with Bluebells brand PG's</t>
-  </si>
-  <si>
-    <t>To Validate  Budget Filter</t>
-  </si>
-  <si>
-    <t>1.Go to Budget drop down
-2.select the budget required</t>
-  </si>
-  <si>
-    <t>2.Min-7000
-Max-11000</t>
-  </si>
-  <si>
-    <t>2.WhiteField</t>
-  </si>
-  <si>
-    <t>2.Girls</t>
-  </si>
-  <si>
-    <t>2.Double</t>
-  </si>
-  <si>
-    <t>2.Bluebells</t>
-  </si>
-  <si>
-    <t>PG list should get updated based on Min and Max Budget</t>
-  </si>
-  <si>
-    <t>To Validate Amenities Filter</t>
-  </si>
-  <si>
-    <t>1.click on Ac
-2.click on Attached Washroom</t>
-  </si>
-  <si>
-    <t>1.AC
-2.Attached Washroom</t>
-  </si>
-  <si>
-    <t>PG list should get updated based clicked amenities</t>
-  </si>
-  <si>
-    <t>PG list is updated based on clicked amenities</t>
-  </si>
-  <si>
-    <t>Pg list is not updated with Min and Max Budget</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>User is on PG details Page</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_12</t>
-  </si>
-  <si>
-    <t>TS_Magic_Bricks_Rent_04</t>
-  </si>
-  <si>
-    <t>User is on PG Details Page</t>
-  </si>
-  <si>
-    <t>To Validate PG details page displays correct info</t>
-  </si>
-  <si>
-    <t>1.Click on a specific PG</t>
-  </si>
-  <si>
-    <t>PG should display its correct info</t>
-  </si>
-  <si>
-    <t>Correct info is displayed for PG</t>
-  </si>
-  <si>
-    <t>To Validate photos are displayed and zoom works</t>
-  </si>
-  <si>
-    <t>1.Click on Photo of PG
-2.Check whether the picture Zooms</t>
-  </si>
-  <si>
-    <t>The Picture of PG should get zoomed</t>
-  </si>
-  <si>
-    <t>Picture of PG is Zoomed</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_13</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_14</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_15</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_16</t>
-  </si>
-  <si>
-    <t>TC_Magic_Bricks_17</t>
-  </si>
-  <si>
-    <t>To Validate Contact Owner button opens form when clicked</t>
-  </si>
-  <si>
-    <t>1.Click on Contact Owner button</t>
-  </si>
-  <si>
-    <t>To Validate View Phone Number button</t>
-  </si>
-  <si>
-    <t>It should display a pop up having owners details.</t>
-  </si>
-  <si>
-    <t>It should display a pop up having Phone number details</t>
-  </si>
-  <si>
-    <t>A pop up having owner details is not disaplyed</t>
-  </si>
-  <si>
-    <t>A pop up having phone number details is displayed</t>
-  </si>
-  <si>
-    <t>TS_Magic_Bricks_Rent_05</t>
-  </si>
-  <si>
-    <t>User is on PG  details Page</t>
-  </si>
-  <si>
-    <t>To Validate  Review Functionality</t>
-  </si>
-  <si>
-    <t>1.Click on the "Contact Owner" button</t>
-  </si>
-  <si>
-    <t>It should a form to give review upon clicking write a review</t>
-  </si>
-  <si>
-    <t>A form is displayed to review  upon clicking writing a review</t>
-  </si>
-  <si>
-    <t>To validate star rating</t>
-  </si>
-  <si>
-    <t>1.select a star rating</t>
-  </si>
-  <si>
-    <t>Review should be saved with selected rating</t>
-  </si>
-  <si>
-    <t>Review is saved with selected rating</t>
-  </si>
-  <si>
-    <t>To Validate “What’s your current status” dropdown</t>
-  </si>
-  <si>
-    <t>1.Scroll down until you see Write a review
-2.Click on Write a Review</t>
-  </si>
-  <si>
-    <t>1.Select status from "whats your current status dropdown</t>
-  </si>
-  <si>
-    <t>Dropdown should display all status options</t>
-  </si>
-  <si>
-    <t>Dropdown displayed all the status options</t>
+    <t>TC_MagicBricks_02</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_03</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_04</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent-03</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_05</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_06</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_07</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_08</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_09</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_10</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>DF_Magic_Bricks_ListPage_01</t>
+  </si>
+  <si>
+    <t>DF_Magic_Bricks_DetailsPage_02</t>
+  </si>
+  <si>
+    <t>BR_MagicBricks_Rent_04</t>
+  </si>
+  <si>
+    <t>REQ_MagicBricks_Rent_04</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent-04</t>
+  </si>
+  <si>
+    <t>1.Click on the "Phone Number" button</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_11</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_12</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_13</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_14</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_15</t>
+  </si>
+  <si>
+    <t>TC_MagicBricks_16</t>
+  </si>
+  <si>
+    <t>BR_MagicBricks_Rent_05</t>
+  </si>
+  <si>
+    <t>TS_MagicBricks_Rent-05</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION SUMMARY</t>
+  </si>
+  <si>
+    <t>Magic Bricks</t>
+  </si>
+  <si>
+    <t>Launching MagicBricks Homepage</t>
+  </si>
+  <si>
+    <t>PG Rent dropdown functionality</t>
+  </si>
+  <si>
+    <t>PG listing filters</t>
+  </si>
+  <si>
+    <t>PG details page</t>
+  </si>
+  <si>
+    <t>Review functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +812,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +848,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -666,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -707,13 +915,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1177,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1188,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1213,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21514112-5E30-4CAC-BF0E-BFD9EE978A8F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1240,34 +1462,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1276,15 +1498,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1296,68 +1518,71 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="142" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E8" s="2"/>
@@ -1367,9 +1592,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" s="1"/>
@@ -1392,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DEF6EF-5DFB-4215-B726-8F1FE8CE6F80}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A5" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1411,526 +1634,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="5"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1939,49 +2140,607 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B0EF53-DAFC-4D64-B7B3-4A198FE9A97A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1D123BFA-58BD-42FE-AC9A-4ECEB4EC5B31}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{DD0311C5-146E-454D-8672-2BCE6D908075}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB673D-EB22-4C28-8424-13ACAA8944EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EE4996-6308-4B23-90E0-6F655F10BD63}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fec5ff7d-5070-45a8-bb5d-bb46cf827e58" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CCFC5473BD0446B68B5D9981554258" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca1525b23895bdade7f0dab7362146a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fec5ff7d-5070-45a8-bb5d-bb46cf827e58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20711d6e69e7416f4384a4e8df99d50c" ns3:_="">
     <xsd:import namespace="fec5ff7d-5070-45a8-bb5d-bb46cf827e58"/>
@@ -2157,6 +2916,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fec5ff7d-5070-45a8-bb5d-bb46cf827e58" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2167,22 +2934,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59281C62-8AE6-4C1D-8D12-2C11A57DDCBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fec5ff7d-5070-45a8-bb5d-bb46cf827e58"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D47E4D-5004-47D5-9EAE-B88E36472614}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2200,6 +2951,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59281C62-8AE6-4C1D-8D12-2C11A57DDCBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fec5ff7d-5070-45a8-bb5d-bb46cf827e58"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{996C2A64-2AE2-4EA0-8242-1478292072DE}">
   <ds:schemaRefs>
